--- a/Code/Training Code/weizmann_training_mean.xlsx
+++ b/Code/Training Code/weizmann_training_mean.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\TA\TugasAkhir\Code\Training Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{076C6AC7-E05B-4A77-9126-E83C8EA300B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C1C47FF-9405-4658-B9D9-3F6808B5BBF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="1" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6705" activeTab="2" xr2:uid="{0BBC70AF-EDD3-4E92-B6B9-23E62C91A51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MEAN" sheetId="2" r:id="rId2"/>
+    <sheet name="MEAN_RINA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -384,10 +385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27537602-1404-466B-906C-F9F794953790}">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AJ3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +723,351 @@
         <v>13.669101682192034</v>
       </c>
     </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25.611420744738247</v>
+      </c>
+      <c r="B4">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="C4">
+        <v>-9.3142675435141079E-6</v>
+      </c>
+      <c r="D4">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="E4">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.2479570333826307E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="H4">
+        <v>26.762162565759677</v>
+      </c>
+      <c r="I4">
+        <v>4.0831738765665339E-7</v>
+      </c>
+      <c r="J4">
+        <v>9.7816935969399143E-6</v>
+      </c>
+      <c r="K4">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="L4">
+        <v>1.1537767622020191E-4</v>
+      </c>
+      <c r="M4">
+        <v>-9.3142675435140554E-6</v>
+      </c>
+      <c r="N4">
+        <v>4.0831738765665238E-7</v>
+      </c>
+      <c r="O4">
+        <v>18.441700844600035</v>
+      </c>
+      <c r="P4">
+        <v>-2.2320386086654224E-5</v>
+      </c>
+      <c r="Q4">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="R4">
+        <v>-1.0831936925313607E-3</v>
+      </c>
+      <c r="S4">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="T4">
+        <v>9.781693596939916E-6</v>
+      </c>
+      <c r="U4">
+        <v>-2.2320386086654207E-5</v>
+      </c>
+      <c r="V4">
+        <v>11.422982974032335</v>
+      </c>
+      <c r="W4">
+        <v>3.0620455234825508E-2</v>
+      </c>
+      <c r="X4">
+        <v>-2.4068193694747751E-2</v>
+      </c>
+      <c r="Y4">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="Z4">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="AA4">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="AB4">
+        <v>3.0620455234825466E-2</v>
+      </c>
+      <c r="AC4">
+        <v>11.343944979851258</v>
+      </c>
+      <c r="AD4">
+        <v>1.1261206270571093E-2</v>
+      </c>
+      <c r="AE4">
+        <v>1.2479570333826318E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.1537767622020172E-4</v>
+      </c>
+      <c r="AG4">
+        <v>-1.0831936925312371E-3</v>
+      </c>
+      <c r="AH4">
+        <v>-2.4068193694747757E-2</v>
+      </c>
+      <c r="AI4">
+        <v>1.1261206270571094E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>18.465492258242733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B540C372-108B-4EDB-A8B3-4B5900C12CDF}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AJ2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>25.611420744738247</v>
+      </c>
+      <c r="B1">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="C1">
+        <v>-9.3142675435141079E-6</v>
+      </c>
+      <c r="D1">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="E1">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="F1">
+        <v>1.2479570333826307E-3</v>
+      </c>
+      <c r="G1">
+        <v>1.2249511855254666E-6</v>
+      </c>
+      <c r="H1">
+        <v>26.762162565759677</v>
+      </c>
+      <c r="I1">
+        <v>4.0831738765665339E-7</v>
+      </c>
+      <c r="J1">
+        <v>9.7816935969399143E-6</v>
+      </c>
+      <c r="K1">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="L1">
+        <v>1.1537767622020191E-4</v>
+      </c>
+      <c r="M1">
+        <v>-9.3142675435140554E-6</v>
+      </c>
+      <c r="N1">
+        <v>4.0831738765665238E-7</v>
+      </c>
+      <c r="O1">
+        <v>18.441700844600035</v>
+      </c>
+      <c r="P1">
+        <v>-2.2320386086654224E-5</v>
+      </c>
+      <c r="Q1">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="R1">
+        <v>-1.0831936925313607E-3</v>
+      </c>
+      <c r="S1">
+        <v>-6.338155666342752E-5</v>
+      </c>
+      <c r="T1">
+        <v>9.781693596939916E-6</v>
+      </c>
+      <c r="U1">
+        <v>-2.2320386086654207E-5</v>
+      </c>
+      <c r="V1">
+        <v>11.422982974032335</v>
+      </c>
+      <c r="W1">
+        <v>3.0620455234825508E-2</v>
+      </c>
+      <c r="X1">
+        <v>-2.4068193694747751E-2</v>
+      </c>
+      <c r="Y1">
+        <v>-1.1611316895669127E-4</v>
+      </c>
+      <c r="Z1">
+        <v>5.4679039672949045E-5</v>
+      </c>
+      <c r="AA1">
+        <v>-5.6847068124133489E-4</v>
+      </c>
+      <c r="AB1">
+        <v>3.0620455234825466E-2</v>
+      </c>
+      <c r="AC1">
+        <v>11.343944979851258</v>
+      </c>
+      <c r="AD1">
+        <v>1.1261206270571093E-2</v>
+      </c>
+      <c r="AE1">
+        <v>1.2479570333826318E-3</v>
+      </c>
+      <c r="AF1">
+        <v>1.1537767622020172E-4</v>
+      </c>
+      <c r="AG1">
+        <v>-1.0831936925312371E-3</v>
+      </c>
+      <c r="AH1">
+        <v>-2.4068193694747757E-2</v>
+      </c>
+      <c r="AI1">
+        <v>1.1261206270571094E-2</v>
+      </c>
+      <c r="AJ1">
+        <v>18.465492258242733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25.611409002802318</v>
+      </c>
+      <c r="B2">
+        <v>3.3956324747623343E-6</v>
+      </c>
+      <c r="C2">
+        <v>-1.225566657904738E-5</v>
+      </c>
+      <c r="D2">
+        <v>7.753161550144823E-5</v>
+      </c>
+      <c r="E2">
+        <v>-1.9288118463352646E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.6251138042429191E-3</v>
+      </c>
+      <c r="G2">
+        <v>3.3956324747623352E-6</v>
+      </c>
+      <c r="H2">
+        <v>26.762162022300625</v>
+      </c>
+      <c r="I2">
+        <v>-1.1500925897159817E-7</v>
+      </c>
+      <c r="J2">
+        <v>-1.9747036568669794E-5</v>
+      </c>
+      <c r="K2">
+        <v>4.8512949858872721E-5</v>
+      </c>
+      <c r="L2">
+        <v>5.4290211289608175E-4</v>
+      </c>
+      <c r="M2">
+        <v>-1.2255666579047221E-5</v>
+      </c>
+      <c r="N2">
+        <v>-1.1500925897160474E-7</v>
+      </c>
+      <c r="O2">
+        <v>18.440972767818156</v>
+      </c>
+      <c r="P2">
+        <v>4.4045312835392698E-4</v>
+      </c>
+      <c r="Q2">
+        <v>-1.1892753209591973E-4</v>
+      </c>
+      <c r="R2">
+        <v>-8.088732161468869E-3</v>
+      </c>
+      <c r="S2">
+        <v>7.7531615501448244E-5</v>
+      </c>
+      <c r="T2">
+        <v>-1.9747036568669797E-5</v>
+      </c>
+      <c r="U2">
+        <v>4.4045312835392839E-4</v>
+      </c>
+      <c r="V2">
+        <v>12.544627282255631</v>
+      </c>
+      <c r="W2">
+        <v>5.1413273969848636E-3</v>
+      </c>
+      <c r="X2">
+        <v>-4.9593546370774559E-2</v>
+      </c>
+      <c r="Y2">
+        <v>-1.9288118463352646E-4</v>
+      </c>
+      <c r="Z2">
+        <v>4.8512949858872721E-5</v>
+      </c>
+      <c r="AA2">
+        <v>-1.1892753209591946E-4</v>
+      </c>
+      <c r="AB2">
+        <v>5.1413273969848393E-3</v>
+      </c>
+      <c r="AC2">
+        <v>12.608116394867508</v>
+      </c>
+      <c r="AD2">
+        <v>-7.0074963804927807E-3</v>
+      </c>
+      <c r="AE2">
+        <v>1.6251138042429189E-3</v>
+      </c>
+      <c r="AF2">
+        <v>5.4290211289608132E-4</v>
+      </c>
+      <c r="AG2">
+        <v>-8.0887321614689662E-3</v>
+      </c>
+      <c r="AH2">
+        <v>-4.9593546370774538E-2</v>
+      </c>
+      <c r="AI2">
+        <v>-7.0074963804927781E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>18.970115585258046</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
